--- a/climmob3/documents/Nueva_prueba_registry.xlsx
+++ b/climmob3/documents/Nueva_prueba_registry.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="102">
   <si>
     <t>type</t>
   </si>
@@ -210,12 +210,99 @@
     <t>end group</t>
   </si>
   <si>
+    <t>group_3</t>
+  </si>
+  <si>
+    <t>Variables explicativas</t>
+  </si>
+  <si>
+    <t>select_one list_6</t>
+  </si>
+  <si>
+    <t>list_6</t>
+  </si>
+  <si>
+    <t>Mas fuerte</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Mas debil</t>
+  </si>
+  <si>
+    <t>question_6</t>
+  </si>
+  <si>
+    <t>Epoca de lluvia</t>
+  </si>
+  <si>
+    <t>Seleccione la que más se llevo acabo</t>
+  </si>
+  <si>
+    <t>question_30</t>
+  </si>
+  <si>
+    <t>Region 2</t>
+  </si>
+  <si>
+    <t>Escriba la region</t>
+  </si>
+  <si>
+    <t>select_one list_27</t>
+  </si>
+  <si>
+    <t>list_27</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>question_27</t>
+  </si>
+  <si>
+    <t>Ha hecho uso de riego en el ensayo ?</t>
+  </si>
+  <si>
+    <t>Consultar al observador</t>
+  </si>
+  <si>
     <t>group_2</t>
   </si>
   <si>
     <t>Detalles de la finca</t>
   </si>
   <si>
+    <t>select_multiple list_29</t>
+  </si>
+  <si>
+    <t>list_29</t>
+  </si>
+  <si>
+    <t>Riego</t>
+  </si>
+  <si>
+    <t>Fertilizantes</t>
+  </si>
+  <si>
+    <t>Metodos de siembra</t>
+  </si>
+  <si>
+    <t>Maquinarias</t>
+  </si>
+  <si>
+    <t>question_29</t>
+  </si>
+  <si>
+    <t>Que aplico durante el desarrollo del ensayo ?</t>
+  </si>
+  <si>
+    <t>Puede marcar varias</t>
+  </si>
+  <si>
     <t>question_4</t>
   </si>
   <si>
@@ -235,45 +322,6 @@
   </si>
   <si>
     <t>Debe de estar ubicado en la entrada de la finca</t>
-  </si>
-  <si>
-    <t>group_3</t>
-  </si>
-  <si>
-    <t>Variables explicativas</t>
-  </si>
-  <si>
-    <t>select_one list_6</t>
-  </si>
-  <si>
-    <t>list_6</t>
-  </si>
-  <si>
-    <t>Mas fuerte</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>Mas debil</t>
-  </si>
-  <si>
-    <t>question_6</t>
-  </si>
-  <si>
-    <t>Epoca de lluvia</t>
-  </si>
-  <si>
-    <t>Seleccione la que más se llevo acabo</t>
-  </si>
-  <si>
-    <t>question_30</t>
-  </si>
-  <si>
-    <t>Region 2</t>
-  </si>
-  <si>
-    <t>Escriba la region</t>
   </si>
 </sst>
 </file>
@@ -605,7 +653,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -806,97 +854,125 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
-      </c>
-      <c r="G16" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D17" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
-      <c r="A19" t="s">
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
         <v>63</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="s">
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B21" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" t="s">
-        <v>74</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="B22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" t="s">
+        <v>85</v>
+      </c>
+      <c r="I22" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" t="s">
-        <v>75</v>
-      </c>
-      <c r="B23" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B24" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" t="s">
-        <v>85</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="B25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" t="s">
+        <v>97</v>
+      </c>
+      <c r="G25" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" t="s">
+        <v>101</v>
+      </c>
+      <c r="G26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
         <v>63</v>
       </c>
-      <c r="B26" t="s">
-        <v>73</v>
+      <c r="B28" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -906,7 +982,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1002,35 +1078,101 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B14" t="s">
         <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B15" t="s">
         <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s">
         <v>47</v>
       </c>
       <c r="C16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
